--- a/Lab-1/Lab-1-D4.xlsx
+++ b/Lab-1/Lab-1-D4.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
-    <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
+    <sheet name="Lab-D-4" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>I, мкА</t>
   </si>
@@ -33,26 +33,39 @@
     <t xml:space="preserve">U0 = </t>
   </si>
   <si>
-    <t>13 В</t>
-  </si>
-  <si>
-    <t>R = 500 кОм</t>
-  </si>
-  <si>
     <t>R = U0 - U0/2 = U0 / 2I</t>
   </si>
   <si>
     <t>I = I(U) = U * 0.000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R = </t>
+  </si>
+  <si>
+    <t>U0/R=</t>
+  </si>
+  <si>
+    <t>В</t>
+  </si>
+  <si>
+    <t>мкА</t>
+  </si>
+  <si>
+    <t>кОм</t>
+  </si>
+  <si>
+    <t>R, МОм</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,8 +97,35 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,8 +147,25 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -331,14 +388,278 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -361,13 +682,6 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -377,21 +691,11 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -399,26 +703,89 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="18" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="23" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="30" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="24" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="25" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="26" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="27" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="34" xfId="4" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Вычисление" xfId="4" builtinId="22"/>
     <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27"/>
@@ -486,10 +853,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Аркуш1!$C$10:$C$43</c:f>
+              <c:f>'Lab-D-4'!$C$10:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>20.149999999999999</c:v>
                 </c:pt>
@@ -497,99 +864,120 @@
                   <c:v>20.14</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>20.100000000000001</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>20.07</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>20.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>19.98</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
+                  <c:v>19.48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.98</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>17.98</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>15.98</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>13.99</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>11.99</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>9.99</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>7.992</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>5.9939999999999998</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>3.996</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>1.998</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
                   <c:v>-1.998</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>-3.996</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>-5.9939999999999998</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="23">
                   <c:v>-7.992</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="24">
                   <c:v>-9.99</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="25">
                   <c:v>-11.99</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
                   <c:v>-13.99</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="27">
                   <c:v>-15.98</c:v>
                 </c:pt>
-                <c:pt idx="23" formatCode="General">
+                <c:pt idx="28">
                   <c:v>-17.98</c:v>
                 </c:pt>
-                <c:pt idx="24" formatCode="General">
+                <c:pt idx="29">
                   <c:v>-19.98</c:v>
                 </c:pt>
-                <c:pt idx="25" formatCode="General">
+                <c:pt idx="30">
                   <c:v>-21.98</c:v>
                 </c:pt>
-                <c:pt idx="26" formatCode="General">
+                <c:pt idx="31">
                   <c:v>-23.98</c:v>
                 </c:pt>
-                <c:pt idx="27" formatCode="General">
+                <c:pt idx="32">
                   <c:v>-25.97</c:v>
                 </c:pt>
-                <c:pt idx="28" formatCode="General">
+                <c:pt idx="33">
                   <c:v>-27.97</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="34">
+                  <c:v>-28.97</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-29.47</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>-29.97</c:v>
                 </c:pt>
-                <c:pt idx="30" formatCode="General">
+                <c:pt idx="37">
                   <c:v>-30.07</c:v>
                 </c:pt>
-                <c:pt idx="31" formatCode="General">
+                <c:pt idx="38">
                   <c:v>-30.09</c:v>
                 </c:pt>
-                <c:pt idx="32" formatCode="General">
+                <c:pt idx="39">
                   <c:v>-30.13</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="40">
                   <c:v>-30.15</c:v>
                 </c:pt>
               </c:numCache>
@@ -597,10 +985,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Аркуш1!$D$10:$D$43</c:f>
+              <c:f>'Lab-D-4'!$D$10:$D$50</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>46.3</c:v>
                 </c:pt>
@@ -608,99 +996,120 @@
                   <c:v>39.03</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>34.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>29.15</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>26.13</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>21.04</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>24.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.98</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>17.98</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>15.98</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>13.99</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>11.99</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>9.99</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>7.9930000000000003</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>5.9950000000000001</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>3.9969999999999999</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>1.9990000000000001</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
                   <c:v>-1.9990000000000001</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>-3.9969999999999999</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>-5.9950000000000001</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="23">
                   <c:v>-7.9930000000000003</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="24">
                   <c:v>-9.99</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="25">
                   <c:v>-11.99</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
                   <c:v>-13.99</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="27">
                   <c:v>-15.98</c:v>
                 </c:pt>
-                <c:pt idx="23" formatCode="General">
+                <c:pt idx="28">
                   <c:v>-17.98</c:v>
                 </c:pt>
-                <c:pt idx="24" formatCode="General">
+                <c:pt idx="29">
                   <c:v>-19.98</c:v>
                 </c:pt>
-                <c:pt idx="25" formatCode="General">
+                <c:pt idx="30">
                   <c:v>-21.98</c:v>
                 </c:pt>
-                <c:pt idx="26" formatCode="General">
+                <c:pt idx="31">
                   <c:v>-23.98</c:v>
                 </c:pt>
-                <c:pt idx="27" formatCode="General">
+                <c:pt idx="32">
                   <c:v>-25.98</c:v>
                 </c:pt>
-                <c:pt idx="28" formatCode="General">
+                <c:pt idx="33">
                   <c:v>-27.97</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>-30.55</c:v>
-                </c:pt>
-                <c:pt idx="30" formatCode="General">
-                  <c:v>-33.49</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="General">
+                <c:pt idx="34">
+                  <c:v>-28.97</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-29.86</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-31.25</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-33.29</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>-35.33</c:v>
                 </c:pt>
-                <c:pt idx="32" formatCode="General">
+                <c:pt idx="39">
                   <c:v>-41.77</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="40">
                   <c:v>-46.9</c:v>
                 </c:pt>
               </c:numCache>
@@ -710,6 +1119,112 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C153-4AE7-B22B-6BE2EA7F2951}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ряд2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="19050">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0FED-4E35-80E3-8B617D6EA682}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lab-D-4'!$G$9:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6666666666666661</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lab-D-4'!$H$9:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6666666666666661</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0FED-4E35-80E3-8B617D6EA682}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -853,6 +1368,611 @@
         <c:crossAx val="812450400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>R(U)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="26"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-F143-4211-B3A3-75E08684C842}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Lab-D-4'!$C$3:$C$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.48</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.98</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.98</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.98</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.99</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.99</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.99</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.992</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.9939999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-3.996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-5.9939999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-7.992</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-9.99</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-11.99</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-13.99</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-15.98</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-17.98</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-19.98</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-21.98</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-23.98</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-25.97</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-27.97</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-28.97</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-29.47</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-29.97</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-30.07</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-30.09</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-30.13</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-30.15</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-30.26</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-30.3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-30.28</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-30.35</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-30.364999999999998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-30.38</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-30.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Lab-D-4'!$E$3:$E$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>7.8582434514637891E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6772662553393455E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2564734895191122E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7843996494303242E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0302578625726634E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4576702737110123E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1294945617402431</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43520518358531318</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51601332308480652</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58658892128279894</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.68953687821612353</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.76808266360505173</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.8347210657785179</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.88539823008849561</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.94826767916468913</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.99897435897435904</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.99987489052921297</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.99983319432860707</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.99974981235926952</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.99949974987493739</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.99949974987493739</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.99974981235926952</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.99983319432860707</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.99987489052921297</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.9996150885296381</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.98693904889484263</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.95904</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.90327425653349358</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.85168412114350411</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.72133109887479041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.64285714285714279</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.21175647305808257</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.10236486486486487</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.14038015762633288</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.6706678978147127E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.7135835567470956E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.8999374609130707E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.4596928982725528E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-F143-4211-B3A3-75E08684C842}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="365216704"/>
+        <c:axId val="365217120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="365216704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                  <a:alpha val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365217120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="365217120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365216704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -940,6 +2060,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1456,20 +2616,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254001</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>178857</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1483,6 +3159,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>299509</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>84454</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1539,12 +3245,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.89887</cdr:x>
-      <cdr:y>0.54668</cdr:y>
+      <cdr:x>0.91868</cdr:x>
+      <cdr:y>0.4559</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>1</cdr:x>
-      <cdr:y>0.63667</cdr:y>
+      <cdr:y>0.54589</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1553,8 +3259,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="8457140" y="3086100"/>
-          <a:ext cx="951443" cy="508000"/>
+          <a:off x="9182099" y="4209242"/>
+          <a:ext cx="812800" cy="830868"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1639,6 +3345,94 @@
           <a:r>
             <a:rPr lang="ru-RU" sz="1600" baseline="0"/>
             <a:t>В</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.94036</cdr:x>
+      <cdr:y>0.90442</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99218</cdr:x>
+      <cdr:y>0.94353</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="12214225" y="7048501"/>
+          <a:ext cx="673100" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>U, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1600"/>
+            <a:t>В</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.57761</cdr:x>
+      <cdr:y>0.03748</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.64996</cdr:x>
+      <cdr:y>0.09452</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7502526" y="292101"/>
+          <a:ext cx="939800" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>R,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1600" baseline="0"/>
+            <a:t>МОм</a:t>
           </a:r>
           <a:endParaRPr lang="ru-RU" sz="1100"/>
         </a:p>
@@ -1911,646 +3705,990 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I50"/>
+  <sheetPr codeName="Лист1"/>
+  <dimension ref="B1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7265625" customWidth="1"/>
-    <col min="9" max="9" width="13.81640625" customWidth="1"/>
+    <col min="8" max="9" width="8.90625" customWidth="1"/>
+    <col min="12" max="12" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="22" t="s">
+    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="26" t="s">
         <v>0</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>11</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="19">
+    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="27">
         <v>23</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="13">
         <v>20.399999999999999</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="14">
         <v>2596</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="E3" s="46">
+        <f>$C3/$D3</f>
+        <v>7.8582434514637891E-3</v>
+      </c>
+      <c r="G3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="27" t="s">
+      <c r="H3" s="34">
+        <v>13</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="10">
+      <c r="L3" s="23"/>
+    </row>
+    <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="28">
         <v>22.5</v>
       </c>
       <c r="C4" s="5">
         <v>20.39</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>2107</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="10">
+      <c r="E4" s="46">
+        <f t="shared" ref="E4:E57" si="0">$C4/$D4</f>
+        <v>9.6772662553393455E-3</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="36">
+        <v>500</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="28">
         <v>22</v>
       </c>
       <c r="C5" s="5">
         <v>20.38</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>1622</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
+      <c r="E5" s="46">
+        <f t="shared" si="0"/>
+        <v>1.2564734895191122E-2</v>
+      </c>
+      <c r="G5" s="38" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="10">
+      <c r="H5" s="37">
+        <v>26</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="23"/>
+    </row>
+    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="28">
         <v>21.5</v>
       </c>
       <c r="C6" s="5">
         <v>20.36</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="8">
         <v>1141</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="10">
+      <c r="E6" s="46">
+        <f t="shared" si="0"/>
+        <v>1.7843996494303242E-2</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="28">
         <v>21</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>20.329999999999998</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="8">
         <v>670.9</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="10">
+      <c r="E7" s="46">
+        <f t="shared" si="0"/>
+        <v>3.0302578625726634E-2</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="28">
         <v>20.6</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>20.29</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="8">
         <v>314.2</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="10">
+      <c r="E8" s="46">
+        <f t="shared" si="0"/>
+        <v>6.4576702737110123E-2</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="28">
         <v>20.399999999999999</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>20.239999999999998</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="8">
         <v>156.30000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="10">
+      <c r="E9" s="46">
+        <f t="shared" si="0"/>
+        <v>0.1294945617402431</v>
+      </c>
+      <c r="G9" s="39">
+        <v>13</v>
+      </c>
+      <c r="H9" s="40">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="28">
         <v>20.2</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>20.149999999999999</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="9">
         <v>46.3</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="10">
+      <c r="E10" s="46">
+        <f t="shared" si="0"/>
+        <v>0.43520518358531318</v>
+      </c>
+      <c r="G10" s="41">
+        <v>0</v>
+      </c>
+      <c r="H10" s="42">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="28">
         <v>20.175000000000001</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>20.14</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="9">
         <v>39.03</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="10">
-        <v>20.125</v>
-      </c>
-      <c r="C12" s="7">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="D12" s="13">
-        <v>29.15</v>
+      <c r="E11" s="46">
+        <f t="shared" si="0"/>
+        <v>0.51601332308480652</v>
+      </c>
+      <c r="G11" s="43">
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="H11" s="44">
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="28">
+        <v>20.149999999999999</v>
+      </c>
+      <c r="C12" s="6">
+        <v>20.12</v>
+      </c>
+      <c r="D12" s="9">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="E12" s="46">
+        <f t="shared" si="0"/>
+        <v>0.58658892128279894</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="10">
+    <row r="13" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="28">
+        <v>20.125</v>
+      </c>
+      <c r="C13" s="6">
         <v>20.100000000000001</v>
       </c>
-      <c r="C13" s="8">
-        <v>20.07</v>
-      </c>
-      <c r="D13" s="14">
-        <v>26.13</v>
+      <c r="D13" s="9">
+        <v>29.15</v>
+      </c>
+      <c r="E13" s="46">
+        <f t="shared" si="0"/>
+        <v>0.68953687821612353</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="10">
-        <v>20</v>
-      </c>
-      <c r="C14" s="7">
-        <v>19.98</v>
-      </c>
-      <c r="D14" s="13">
-        <v>21.04</v>
+    <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="28">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="C14" s="20">
+        <v>20.07</v>
+      </c>
+      <c r="D14" s="21">
+        <v>26.13</v>
+      </c>
+      <c r="E14" s="46">
+        <f t="shared" si="0"/>
+        <v>0.76808266360505173</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="10">
-        <v>18</v>
-      </c>
-      <c r="C15" s="7">
-        <v>17.98</v>
-      </c>
-      <c r="D15" s="13">
-        <v>17.98</v>
+    <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="28">
+        <v>20.074999999999999</v>
+      </c>
+      <c r="C15" s="6">
+        <v>20.05</v>
+      </c>
+      <c r="D15" s="9">
+        <v>24.02</v>
+      </c>
+      <c r="E15" s="46">
+        <f t="shared" si="0"/>
+        <v>0.8347210657785179</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="10">
-        <v>16</v>
-      </c>
-      <c r="C16" s="7">
-        <v>15.98</v>
-      </c>
-      <c r="D16" s="13">
-        <v>15.98</v>
+    <row r="16" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="29">
+        <v>20.05</v>
+      </c>
+      <c r="C16" s="18">
+        <v>20.010000000000002</v>
+      </c>
+      <c r="D16" s="19">
+        <v>22.6</v>
+      </c>
+      <c r="E16" s="46">
+        <f t="shared" si="0"/>
+        <v>0.88539823008849561</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="10">
-        <v>14</v>
-      </c>
-      <c r="C17" s="7">
-        <v>13.99</v>
-      </c>
-      <c r="D17" s="13">
-        <v>13.99</v>
+    <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="28">
+        <v>20</v>
+      </c>
+      <c r="C17" s="6">
+        <v>19.98</v>
+      </c>
+      <c r="D17" s="9">
+        <v>21.07</v>
+      </c>
+      <c r="E17" s="46">
+        <f t="shared" si="0"/>
+        <v>0.94826767916468913</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B18" s="10">
-        <v>12</v>
-      </c>
-      <c r="C18" s="7">
-        <v>11.99</v>
-      </c>
-      <c r="D18" s="13">
-        <v>11.99</v>
+    <row r="18" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="29">
+        <v>19.5</v>
+      </c>
+      <c r="C18" s="18">
+        <v>19.48</v>
+      </c>
+      <c r="D18" s="19">
+        <v>19.5</v>
+      </c>
+      <c r="E18" s="46">
+        <f t="shared" si="0"/>
+        <v>0.99897435897435904</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B19" s="10">
-        <v>10</v>
+    <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="30">
+        <v>19</v>
       </c>
       <c r="C19" s="7">
-        <v>9.99</v>
-      </c>
-      <c r="D19" s="13">
-        <v>9.99</v>
+        <v>18.98</v>
+      </c>
+      <c r="D19" s="17">
+        <v>18.98</v>
+      </c>
+      <c r="E19" s="46">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B20" s="10">
-        <v>8</v>
-      </c>
-      <c r="C20" s="7">
-        <v>7.992</v>
-      </c>
-      <c r="D20" s="13">
-        <v>7.9930000000000003</v>
+    <row r="20" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="27">
+        <v>18</v>
+      </c>
+      <c r="C20" s="16">
+        <v>17.98</v>
+      </c>
+      <c r="D20" s="15">
+        <v>17.98</v>
+      </c>
+      <c r="E20" s="46">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B21" s="10">
-        <v>6</v>
+    <row r="21" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="28">
+        <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>5.9939999999999998</v>
-      </c>
-      <c r="D21" s="13">
-        <v>5.9950000000000001</v>
+        <v>15.98</v>
+      </c>
+      <c r="D21" s="10">
+        <v>15.98</v>
+      </c>
+      <c r="E21" s="46">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B22" s="10">
-        <v>4</v>
+    <row r="22" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="28">
+        <v>14</v>
       </c>
       <c r="C22" s="7">
-        <v>3.996</v>
-      </c>
-      <c r="D22" s="13">
-        <v>3.9969999999999999</v>
+        <v>13.99</v>
+      </c>
+      <c r="D22" s="10">
+        <v>13.99</v>
+      </c>
+      <c r="E22" s="46">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B23" s="10">
-        <v>2</v>
+    <row r="23" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="28">
+        <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>1.998</v>
-      </c>
-      <c r="D23" s="13">
-        <v>1.9990000000000001</v>
+        <v>11.99</v>
+      </c>
+      <c r="D23" s="10">
+        <v>11.99</v>
+      </c>
+      <c r="E23" s="46">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B24" s="10">
-        <v>0</v>
+    <row r="24" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="28">
+        <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="13">
-        <v>0</v>
+        <v>9.99</v>
+      </c>
+      <c r="D24" s="10">
+        <v>9.99</v>
+      </c>
+      <c r="E24" s="46">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B25" s="10">
-        <v>-2</v>
+    <row r="25" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="28">
+        <v>8</v>
       </c>
       <c r="C25" s="7">
-        <v>-1.998</v>
-      </c>
-      <c r="D25" s="13">
-        <v>-1.9990000000000001</v>
+        <v>7.992</v>
+      </c>
+      <c r="D25" s="10">
+        <v>7.9930000000000003</v>
+      </c>
+      <c r="E25" s="46">
+        <f t="shared" si="0"/>
+        <v>0.99987489052921297</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B26" s="10">
-        <v>-4</v>
+    <row r="26" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="28">
+        <v>6</v>
       </c>
       <c r="C26" s="7">
-        <v>-3.996</v>
-      </c>
-      <c r="D26" s="13">
-        <v>-3.9969999999999999</v>
+        <v>5.9939999999999998</v>
+      </c>
+      <c r="D26" s="10">
+        <v>5.9950000000000001</v>
+      </c>
+      <c r="E26" s="46">
+        <f t="shared" si="0"/>
+        <v>0.99983319432860707</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B27" s="10">
-        <v>-6</v>
+    <row r="27" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="28">
+        <v>4</v>
       </c>
       <c r="C27" s="7">
-        <v>-5.9939999999999998</v>
-      </c>
-      <c r="D27" s="13">
-        <v>-5.9950000000000001</v>
+        <v>3.996</v>
+      </c>
+      <c r="D27" s="10">
+        <v>3.9969999999999999</v>
+      </c>
+      <c r="E27" s="46">
+        <f t="shared" si="0"/>
+        <v>0.99974981235926952</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B28" s="10">
-        <v>-8</v>
+    <row r="28" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="28">
+        <v>2</v>
       </c>
       <c r="C28" s="7">
-        <v>-7.992</v>
-      </c>
-      <c r="D28" s="13">
-        <v>-7.9930000000000003</v>
+        <v>1.998</v>
+      </c>
+      <c r="D28" s="10">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="E28" s="46">
+        <f t="shared" si="0"/>
+        <v>0.99949974987493739</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B29" s="10">
-        <v>-10</v>
+    <row r="29" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="28">
+        <v>0</v>
       </c>
       <c r="C29" s="7">
-        <v>-9.99</v>
-      </c>
-      <c r="D29" s="13">
-        <v>-9.99</v>
+        <v>0</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0</v>
+      </c>
+      <c r="E29" s="46">
+        <v>1</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B30" s="10">
-        <v>-12</v>
+    <row r="30" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="28">
+        <v>-2</v>
       </c>
       <c r="C30" s="7">
-        <v>-11.99</v>
-      </c>
-      <c r="D30" s="13">
-        <v>-11.99</v>
+        <v>-1.998</v>
+      </c>
+      <c r="D30" s="10">
+        <v>-1.9990000000000001</v>
+      </c>
+      <c r="E30" s="46">
+        <f t="shared" si="0"/>
+        <v>0.99949974987493739</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B31" s="10">
-        <v>-14</v>
+    <row r="31" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="28">
+        <v>-4</v>
       </c>
       <c r="C31" s="7">
-        <v>-13.99</v>
-      </c>
-      <c r="D31" s="13">
-        <v>-13.99</v>
+        <v>-3.996</v>
+      </c>
+      <c r="D31" s="10">
+        <v>-3.9969999999999999</v>
+      </c>
+      <c r="E31" s="46">
+        <f t="shared" si="0"/>
+        <v>0.99974981235926952</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B32" s="10">
-        <v>-16</v>
+    <row r="32" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="28">
+        <v>-6</v>
       </c>
       <c r="C32" s="7">
-        <v>-15.98</v>
-      </c>
-      <c r="D32" s="13">
-        <v>-15.98</v>
+        <v>-5.9939999999999998</v>
+      </c>
+      <c r="D32" s="10">
+        <v>-5.9950000000000001</v>
+      </c>
+      <c r="E32" s="46">
+        <f t="shared" si="0"/>
+        <v>0.99983319432860707</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B33" s="10">
-        <v>-18</v>
-      </c>
-      <c r="C33" s="9">
-        <v>-17.98</v>
-      </c>
-      <c r="D33" s="15">
-        <v>-17.98</v>
+    <row r="33" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="28">
+        <v>-8</v>
+      </c>
+      <c r="C33" s="7">
+        <v>-7.992</v>
+      </c>
+      <c r="D33" s="10">
+        <v>-7.9930000000000003</v>
+      </c>
+      <c r="E33" s="46">
+        <f t="shared" si="0"/>
+        <v>0.99987489052921297</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B34" s="10">
-        <v>-20</v>
-      </c>
-      <c r="C34" s="9">
-        <v>-19.98</v>
-      </c>
-      <c r="D34" s="15">
-        <v>-19.98</v>
+    <row r="34" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="28">
+        <v>-10</v>
+      </c>
+      <c r="C34" s="7">
+        <v>-9.99</v>
+      </c>
+      <c r="D34" s="10">
+        <v>-9.99</v>
+      </c>
+      <c r="E34" s="46">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B35" s="10">
-        <v>-22</v>
-      </c>
-      <c r="C35" s="9">
-        <v>-21.98</v>
-      </c>
-      <c r="D35" s="15">
-        <v>-21.98</v>
+    <row r="35" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="28">
+        <v>-12</v>
+      </c>
+      <c r="C35" s="7">
+        <v>-11.99</v>
+      </c>
+      <c r="D35" s="10">
+        <v>-11.99</v>
+      </c>
+      <c r="E35" s="46">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B36" s="10">
-        <v>-24</v>
-      </c>
-      <c r="C36" s="9">
-        <v>-23.98</v>
-      </c>
-      <c r="D36" s="15">
-        <v>-23.98</v>
+    <row r="36" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="28">
+        <v>-14</v>
+      </c>
+      <c r="C36" s="7">
+        <v>-13.99</v>
+      </c>
+      <c r="D36" s="10">
+        <v>-13.99</v>
+      </c>
+      <c r="E36" s="46">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B37" s="10">
-        <v>-26</v>
-      </c>
-      <c r="C37" s="9">
-        <v>-25.97</v>
-      </c>
-      <c r="D37" s="15">
-        <v>-25.98</v>
+    <row r="37" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="28">
+        <v>-16</v>
+      </c>
+      <c r="C37" s="7">
+        <v>-15.98</v>
+      </c>
+      <c r="D37" s="10">
+        <v>-15.98</v>
+      </c>
+      <c r="E37" s="46">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B38" s="10">
-        <v>-28</v>
-      </c>
-      <c r="C38" s="9">
-        <v>-27.97</v>
-      </c>
-      <c r="D38" s="15">
-        <v>-27.97</v>
+    <row r="38" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="28">
+        <v>-18</v>
+      </c>
+      <c r="C38" s="7">
+        <v>-17.98</v>
+      </c>
+      <c r="D38" s="10">
+        <v>-17.98</v>
+      </c>
+      <c r="E38" s="46">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B39" s="10">
-        <v>-30</v>
+    <row r="39" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="28">
+        <v>-20</v>
       </c>
       <c r="C39" s="7">
-        <v>-29.97</v>
-      </c>
-      <c r="D39" s="13">
-        <v>-30.55</v>
+        <v>-19.98</v>
+      </c>
+      <c r="D39" s="10">
+        <v>-19.98</v>
+      </c>
+      <c r="E39" s="46">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B40" s="10">
-        <v>-30.1</v>
-      </c>
-      <c r="C40" s="9">
-        <v>-30.07</v>
-      </c>
-      <c r="D40" s="15">
-        <v>-33.49</v>
+    <row r="40" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="28">
+        <v>-22</v>
+      </c>
+      <c r="C40" s="7">
+        <v>-21.98</v>
+      </c>
+      <c r="D40" s="10">
+        <v>-21.98</v>
+      </c>
+      <c r="E40" s="46">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B41" s="10">
-        <v>-30.125</v>
-      </c>
-      <c r="C41" s="9">
-        <v>-30.09</v>
-      </c>
-      <c r="D41" s="15">
-        <v>-35.33</v>
+    <row r="41" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="28">
+        <v>-24</v>
+      </c>
+      <c r="C41" s="7">
+        <v>-23.98</v>
+      </c>
+      <c r="D41" s="10">
+        <v>-23.98</v>
+      </c>
+      <c r="E41" s="46">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B42" s="10">
+    <row r="42" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="28">
+        <v>-26</v>
+      </c>
+      <c r="C42" s="7">
+        <v>-25.97</v>
+      </c>
+      <c r="D42" s="10">
+        <v>-25.98</v>
+      </c>
+      <c r="E42" s="46">
+        <f t="shared" si="0"/>
+        <v>0.9996150885296381</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="28">
+        <v>-28</v>
+      </c>
+      <c r="C43" s="7">
+        <v>-27.97</v>
+      </c>
+      <c r="D43" s="10">
+        <v>-27.97</v>
+      </c>
+      <c r="E43" s="46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="28">
+        <v>-29</v>
+      </c>
+      <c r="C44" s="7">
+        <v>-28.97</v>
+      </c>
+      <c r="D44" s="10">
+        <v>-28.97</v>
+      </c>
+      <c r="E44" s="46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="29">
+        <v>-29.5</v>
+      </c>
+      <c r="C45" s="18">
+        <v>-29.47</v>
+      </c>
+      <c r="D45" s="19">
+        <v>-29.86</v>
+      </c>
+      <c r="E45" s="46">
+        <f t="shared" si="0"/>
+        <v>0.98693904889484263</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="28">
+        <v>-30</v>
+      </c>
+      <c r="C46" s="6">
+        <v>-29.97</v>
+      </c>
+      <c r="D46" s="9">
+        <v>-31.25</v>
+      </c>
+      <c r="E46" s="46">
+        <f t="shared" si="0"/>
+        <v>0.95904</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="28">
+        <v>-30.1</v>
+      </c>
+      <c r="C47" s="6">
+        <v>-30.07</v>
+      </c>
+      <c r="D47" s="9">
+        <v>-33.29</v>
+      </c>
+      <c r="E47" s="46">
+        <f t="shared" si="0"/>
+        <v>0.90327425653349358</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="28">
+        <v>-30.125</v>
+      </c>
+      <c r="C48" s="6">
+        <v>-30.09</v>
+      </c>
+      <c r="D48" s="9">
+        <v>-35.33</v>
+      </c>
+      <c r="E48" s="46">
+        <f t="shared" si="0"/>
+        <v>0.85168412114350411</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="28">
         <v>-30.175000000000001</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C49" s="6">
         <v>-30.13</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D49" s="9">
         <v>-41.77</v>
       </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B43" s="10">
+      <c r="E49" s="46">
+        <f t="shared" si="0"/>
+        <v>0.72133109887479041</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="28">
         <v>-30.2</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C50" s="6">
         <v>-30.15</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D50" s="9">
         <v>-46.9</v>
       </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B44" s="10">
+      <c r="E50" s="46">
+        <f t="shared" si="0"/>
+        <v>0.64285714285714279</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="28">
         <v>-30.4</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C51" s="5">
         <v>-30.26</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D51" s="8">
         <v>-142.9</v>
       </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B45" s="10">
+      <c r="E51" s="46">
+        <f t="shared" si="0"/>
+        <v>0.21175647305808257</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="28">
         <v>-30.6</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C52" s="5">
         <v>-30.3</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D52" s="8">
         <v>-296</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B46" s="10">
+      <c r="E52" s="46">
+        <f t="shared" si="0"/>
+        <v>0.10236486486486487</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="28">
         <v>-30.5</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C53" s="5">
         <v>-30.28</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D53" s="8">
         <v>-215.7</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B47" s="10">
+      <c r="E53" s="46">
+        <f t="shared" si="0"/>
+        <v>0.14038015762633288</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="28">
         <v>-31</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C54" s="5">
         <v>-30.35</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D54" s="8">
         <v>-649.79999999999995</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B48" s="10">
+      <c r="E54" s="46">
+        <f t="shared" si="0"/>
+        <v>4.6706678978147127E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="28">
         <v>-31.5</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C55" s="5">
         <v>-30.364999999999998</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D55" s="8">
         <v>-1119</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B49" s="10">
+      <c r="E55" s="46">
+        <f t="shared" si="0"/>
+        <v>2.7135835567470956E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B56" s="28">
         <v>-32</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C56" s="5">
         <v>-30.38</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D56" s="8">
         <v>-1599</v>
       </c>
-    </row>
-    <row r="50" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="16">
+      <c r="E56" s="46">
+        <f t="shared" si="0"/>
+        <v>1.8999374609130707E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="31">
         <v>-32.5</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C57" s="11">
         <v>-30.42</v>
       </c>
-      <c r="D50" s="18">
+      <c r="D57" s="12">
         <v>-2084</v>
       </c>
+      <c r="E57" s="46">
+        <f t="shared" si="0"/>
+        <v>1.4596928982725528E-2</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K5:L5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
